--- a/data/UNIFAC-HUKKEKAIR.xlsx
+++ b/data/UNIFAC-HUKKEKAIR.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="4080" xr2:uid="{9A285633-56C4-4F8A-BF7D-178E32CAE9FA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="4080" activeTab="1" xr2:uid="{9A285633-56C4-4F8A-BF7D-178E32CAE9FA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Equivalences" sheetId="1" r:id="rId1"/>
+    <sheet name="SecondOrderConfigs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="552">
   <si>
     <t>No.</t>
   </si>
@@ -737,9 +738,6 @@
     <t>-Fexceptasabove</t>
   </si>
   <si>
-    <t>-Clexceptasabove</t>
-  </si>
-  <si>
     <t>CHNOH</t>
   </si>
   <si>
@@ -1004,20 +1002,711 @@
     <t>Column3</t>
   </si>
   <si>
-    <t>Br</t>
-  </si>
-  <si>
     <t>Equivalance</t>
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Brexceptasabove</t>
+  </si>
+  <si>
+    <t>Iexceptasabove</t>
+  </si>
+  <si>
+    <t>Clexceptasabove</t>
+  </si>
+  <si>
+    <t>aC-SO2NHn(n&gt;=0;n&lt;3)</t>
+  </si>
+  <si>
+    <t>aC-CONH(CH2)2N</t>
+  </si>
+  <si>
+    <t>(N=C)cyc-CH3</t>
+  </si>
+  <si>
+    <t>aC-NHCOCH2N</t>
+  </si>
+  <si>
+    <t>AROMRINGs1s2s3s4s5</t>
+  </si>
+  <si>
+    <t>(CHn=CHm)cyc-COOH</t>
+  </si>
+  <si>
+    <t>PYRIDINEs2s3s6</t>
+  </si>
+  <si>
+    <t>PYRIDINEs3s5</t>
+  </si>
+  <si>
+    <t>PYRIDINEs3s4</t>
+  </si>
+  <si>
+    <t>PYRIDINEs2s6</t>
+  </si>
+  <si>
+    <t>PYRIDINEs2s5</t>
+  </si>
+  <si>
+    <t>PYRIDINEs2s4</t>
+  </si>
+  <si>
+    <t>PYRIDINEs2s3</t>
+  </si>
+  <si>
+    <t>PYRIDINEs4</t>
+  </si>
+  <si>
+    <t>PYRIDINEs3</t>
+  </si>
+  <si>
+    <t>PYRIDINEs2</t>
+  </si>
+  <si>
+    <t>AROMRINGs1s2s4s5</t>
+  </si>
+  <si>
+    <t>AROMRINGs1s2s3s5</t>
+  </si>
+  <si>
+    <t>AROMRINGs1s2s3s4</t>
+  </si>
+  <si>
+    <t>AROMRINGs1s3s5</t>
+  </si>
+  <si>
+    <t>AROMRINGs1s2s4</t>
+  </si>
+  <si>
+    <t>AROMRINGs1s2s3</t>
+  </si>
+  <si>
+    <t>AROMRINGs1s4</t>
+  </si>
+  <si>
+    <t>AROMRINGs1s3</t>
+  </si>
+  <si>
+    <t>AROMRINGs1s2</t>
+  </si>
+  <si>
+    <t>&gt;Ncyc-CH2</t>
+  </si>
+  <si>
+    <t>&gt;Ncyc-CH3</t>
+  </si>
+  <si>
+    <t>Ccyc-OH</t>
+  </si>
+  <si>
+    <t>Ccyc-CH2</t>
+  </si>
+  <si>
+    <t>Ccyc-CH3</t>
+  </si>
+  <si>
+    <t>CHcyc-OOC</t>
+  </si>
+  <si>
+    <t>CHcyc-COO</t>
+  </si>
+  <si>
+    <t>CHcyc-OOCH</t>
+  </si>
+  <si>
+    <t>CHcyc-O-</t>
+  </si>
+  <si>
+    <t>CHcyc-CHO</t>
+  </si>
+  <si>
+    <t>CHcyc-S-</t>
+  </si>
+  <si>
+    <t>CHcyc-NO2</t>
+  </si>
+  <si>
+    <t>CHcyc-CO</t>
+  </si>
+  <si>
+    <t>CHcyc-COOH</t>
+  </si>
+  <si>
+    <t>CHcyc-CN</t>
+  </si>
+  <si>
+    <t>CHcyc-SH</t>
+  </si>
+  <si>
+    <t>CHcyc-N-CHn(nin0..3)</t>
+  </si>
+  <si>
+    <t>CHcyc-NH-CHn(nin0..3)</t>
+  </si>
+  <si>
+    <t>CHcyc-NH2</t>
+  </si>
+  <si>
+    <t>CHcyc-OH</t>
+  </si>
+  <si>
+    <t>CHcyc-F</t>
+  </si>
+  <si>
+    <t>CHcyc-Cl</t>
+  </si>
+  <si>
+    <t>CHcyc-C=CHn(nin1..2)</t>
+  </si>
+  <si>
+    <t>CHcyc-CH=CHn(nin1..2)</t>
+  </si>
+  <si>
+    <t>CHcyc-C</t>
+  </si>
+  <si>
+    <t>CHcyc-CH</t>
+  </si>
+  <si>
+    <t>CHcyc-CH2</t>
+  </si>
+  <si>
+    <t>CHcyc-CH3</t>
+  </si>
+  <si>
+    <t>(CHn=C)cyc-Cl(nin0..2)</t>
+  </si>
+  <si>
+    <t>(CHn=C)cyc-CN(nin0..2)</t>
+  </si>
+  <si>
+    <t>(CHn=C)cyc-CH2(nin0..2)</t>
+  </si>
+  <si>
+    <t>(CHn=C)cyc-CH3(nin0..2)</t>
+  </si>
+  <si>
+    <t>(CHn=C)cyc-CO-(nin0..2)</t>
+  </si>
+  <si>
+    <t>(CHn=C)cyc-COO-CHm(n,min0..3)</t>
+  </si>
+  <si>
+    <t>(CHn=C)(cyc)-CHO(nin0..2)</t>
+  </si>
+  <si>
+    <t>aC-CF3</t>
+  </si>
+  <si>
+    <t>aC-C(CH3)3</t>
+  </si>
+  <si>
+    <t>aC-CH(CH3)2</t>
+  </si>
+  <si>
+    <t>aC-SO2-OH</t>
+  </si>
+  <si>
+    <t>aC-CHn-COO(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-OOC(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-CONH2(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHm-NO2(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-OOC-H(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-S-(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-CO-(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-COOH(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-SH(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-CHO(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-CN(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-OH(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-O-(nin1..2)</t>
+  </si>
+  <si>
+    <t>aC-CHn-NHm(nin1..2;min0..2))</t>
+  </si>
+  <si>
+    <t>aC-CHn-X(nin1..2)X:Halogen</t>
+  </si>
+  <si>
+    <t>70|8|7|6|5.42</t>
+  </si>
+  <si>
+    <t>9|8|7|6|5.31</t>
+  </si>
+  <si>
+    <t>CHm=CHn-COOH(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>70|8|7|6|5.20</t>
+  </si>
+  <si>
+    <t>9|8|7|6|5.38</t>
+  </si>
+  <si>
+    <t>CHm=CHn-CHO(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>70|8|7|6|5.77.1|2|3|4</t>
+  </si>
+  <si>
+    <t>9|8|7|6|5.48.1|2|3|4</t>
+  </si>
+  <si>
+    <t>CHn=CHm-COO-CHp(m,n,pin0..3)</t>
+  </si>
+  <si>
+    <t>CHm=CHn-CN(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>130.9|8|7|6|5</t>
+  </si>
+  <si>
+    <t>CHm=CHn-Cl(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>CHm=CHnI</t>
+  </si>
+  <si>
+    <t>63.5|6|7|8|70</t>
+  </si>
+  <si>
+    <t>127.9|8|7|6|5</t>
+  </si>
+  <si>
+    <t>CHm=CHn-I(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>CHm=CHnBr</t>
+  </si>
+  <si>
+    <t>64.5|6|7|8|70</t>
+  </si>
+  <si>
+    <t>128.9|8|7|6|5</t>
+  </si>
+  <si>
+    <t>CHm=CHn-Br(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>129.9|8|7|6|5</t>
+  </si>
+  <si>
+    <t>CHm=CHn-F(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>CHm-O-CHn=CHp</t>
+  </si>
+  <si>
+    <t>24|25|26.5|6|7|8|70</t>
+  </si>
+  <si>
+    <t>49|50|51.9|8|7|6|5</t>
+  </si>
+  <si>
+    <t>CHm-O-CHn=CHp(m,n,pin0..3)</t>
+  </si>
+  <si>
+    <t>COCH2COO/COCHCOO/COCCOO</t>
+  </si>
+  <si>
+    <t>77.19|18/77.2|3|4.18|19/22.18|19</t>
+  </si>
+  <si>
+    <t>48.34|35/48.2|3.33|34|35/41|42.33|34|35</t>
+  </si>
+  <si>
+    <t>COCHnCOO(nin1..2)</t>
+  </si>
+  <si>
+    <t>68|69.48</t>
+  </si>
+  <si>
+    <t>NC-CHn-COO(nin1..2)</t>
+  </si>
+  <si>
+    <t>41|42.41|42</t>
+  </si>
+  <si>
+    <t>OOC-CHm-CHm-COO(n,min1..2)</t>
+  </si>
+  <si>
+    <t>77.2|3.2|3.77</t>
+  </si>
+  <si>
+    <t>48.2|3.2|3.48</t>
+  </si>
+  <si>
+    <t>COO-CHn-CHm-OOC(n,min1..2)</t>
+  </si>
+  <si>
+    <t>138|139.2|3.31</t>
+  </si>
+  <si>
+    <t>HS-CHn-CHm-SH(n,min1..2)</t>
+  </si>
+  <si>
+    <t>14|81|82.2|3.41</t>
+  </si>
+  <si>
+    <t>29.2|3.68|69</t>
+  </si>
+  <si>
+    <t>OH-CHn-CHm-CN(n,min1..2)</t>
+  </si>
+  <si>
+    <t>68|69.68|69</t>
+  </si>
+  <si>
+    <t>NC-CHn-CHm-CN(n,min1..2)</t>
+  </si>
+  <si>
+    <t>60.2|3.42</t>
+  </si>
+  <si>
+    <t>HS-CHn-CHm-COOH(n,min1..2)</t>
+  </si>
+  <si>
+    <t>HS-CH-COOH</t>
+  </si>
+  <si>
+    <t>24.2|3.42</t>
+  </si>
+  <si>
+    <t>49.2|3.31</t>
+  </si>
+  <si>
+    <t>CH3-O-CHn-COOH(nin1..2)</t>
+  </si>
+  <si>
+    <t>29|30.2|3.42</t>
+  </si>
+  <si>
+    <t>54|55.2|3.31</t>
+  </si>
+  <si>
+    <t>NH2-CHn-CHm-COOH(n,min1..2)</t>
+  </si>
+  <si>
+    <t>14|81|82.2|3.42</t>
+  </si>
+  <si>
+    <t>29.2|3.31</t>
+  </si>
+  <si>
+    <t>HO-CHn-COOH(nin1..2)</t>
+  </si>
+  <si>
+    <t>42.2|3.2|3.42</t>
+  </si>
+  <si>
+    <t>31.2|3.2|3.31</t>
+  </si>
+  <si>
+    <t>HOOC-CHn-CHm-COOH(n,min1..2)</t>
+  </si>
+  <si>
+    <t>42.2|3.42</t>
+  </si>
+  <si>
+    <t>31.2|3.31</t>
+  </si>
+  <si>
+    <t>HOOC-CHn-COOH(nin1..2)</t>
+  </si>
+  <si>
+    <t>CHm(NH2)COOH</t>
+  </si>
+  <si>
+    <t>29|30|85|32|33|35.42</t>
+  </si>
+  <si>
+    <t>54|55|56|58|59|61.31</t>
+  </si>
+  <si>
+    <t>CHm(NHn)-COOH(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>91.2|3.2|3.91</t>
+  </si>
+  <si>
+    <t>86.2|3.2|3.86</t>
+  </si>
+  <si>
+    <t>H2NCOCHnCHmCONH2(m,nin1..2)</t>
+  </si>
+  <si>
+    <t>32|33.29|30|85</t>
+  </si>
+  <si>
+    <t>58|59.54|55|56</t>
+  </si>
+  <si>
+    <t>CHm(NH)CHn(NH2)(m,nin1..2)</t>
+  </si>
+  <si>
+    <t>CHm(NH2)CHn(NH2)</t>
+  </si>
+  <si>
+    <t>29|30|85.29|30|85</t>
+  </si>
+  <si>
+    <t>54|55|56.54|55|56</t>
+  </si>
+  <si>
+    <t>CHm(NH2)CHn(NH2)(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>CHm(OH)CHn(NHp)</t>
+  </si>
+  <si>
+    <t>2|3|4(82|81|14).29|30|85|32|33|35</t>
+  </si>
+  <si>
+    <t>2|3|4(29).54|55|56|58|59|61</t>
+  </si>
+  <si>
+    <t>CHm(OH)CHn(NHp)(m,n,pin0..2)</t>
+  </si>
+  <si>
+    <t>CHm(OH)CHn(OH)</t>
+  </si>
+  <si>
+    <t>2|3|4(14|81|82).2|3|4(14|81|82)</t>
+  </si>
+  <si>
+    <t>2|3|4(29).2|3|4(29)</t>
+  </si>
+  <si>
+    <t>CHm(OH)CHn(OH)(m,nin0..2)</t>
+  </si>
+  <si>
+    <r>
+      <t>22.14/77.2.14/77.3.81</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.4.82</t>
+    </r>
+  </si>
+  <si>
+    <t>OH-CHn-COO(nin0..2)</t>
+  </si>
+  <si>
+    <t>29.69|70</t>
+  </si>
+  <si>
+    <t>NCCHOHorNCCOH</t>
+  </si>
+  <si>
+    <t>19(1).14/18.2|3|4.14|81|82</t>
+  </si>
+  <si>
+    <t>34(1).29/18.2|3|4.29</t>
+  </si>
+  <si>
+    <t>CH3COCHnOH(nin0..2)</t>
+  </si>
+  <si>
+    <t>COH</t>
+  </si>
+  <si>
+    <t>CHOH</t>
+  </si>
+  <si>
+    <t>CO-O-CO</t>
+  </si>
+  <si>
+    <t>CH3COOCH/CH3COOC</t>
+  </si>
+  <si>
+    <t>21.3|4</t>
+  </si>
+  <si>
+    <t>40.3|4</t>
+  </si>
+  <si>
+    <t>CH3COOCHorCH3COOC</t>
+  </si>
+  <si>
+    <t>CHCOOH/CCOOH</t>
+  </si>
+  <si>
+    <t>42.3|4</t>
+  </si>
+  <si>
+    <t>31.3|4</t>
+  </si>
+  <si>
+    <t>CHCOOHorCCOOH</t>
+  </si>
+  <si>
+    <t>CH3COCH/CH3COC</t>
+  </si>
+  <si>
+    <t>18.3|4</t>
+  </si>
+  <si>
+    <t>33.3|4</t>
+  </si>
+  <si>
+    <t>CH3COCHorCH3COC</t>
+  </si>
+  <si>
+    <t>CH3COCH2</t>
+  </si>
+  <si>
+    <t>18.2/19.1</t>
+  </si>
+  <si>
+    <t>33.2/34.1</t>
+  </si>
+  <si>
+    <t>CHCHO/CCHO</t>
+  </si>
+  <si>
+    <t>20.3|4</t>
+  </si>
+  <si>
+    <t>38.3|4</t>
+  </si>
+  <si>
+    <t>CHCHOorCCHO</t>
+  </si>
+  <si>
+    <t>CH-CHm=CHn/CCHm=CHn</t>
+  </si>
+  <si>
+    <t>70|8|7|6|5.3|4</t>
+  </si>
+  <si>
+    <t>9|8|7|6|5.3|4</t>
+  </si>
+  <si>
+    <t>CHp-CHm=CHn(m,nin0..2;pin0..1)</t>
+  </si>
+  <si>
+    <t>CH2--CHm=CHn</t>
+  </si>
+  <si>
+    <t>70|8|7|6|5.2</t>
+  </si>
+  <si>
+    <t>9|8|7|6|5.2</t>
+  </si>
+  <si>
+    <t>CH2-CHm=CHn(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>CH3-CHm=CHn</t>
+  </si>
+  <si>
+    <t>70|8|7|6|5.1</t>
+  </si>
+  <si>
+    <t>9|8|7|6|5.1</t>
+  </si>
+  <si>
+    <t>CH3-CHm=CHn(m,nin0..2)</t>
+  </si>
+  <si>
+    <t>CHn=CHm-CHp=CHk</t>
+  </si>
+  <si>
+    <t>70|8|7|6|5.70|8|7|6|5</t>
+  </si>
+  <si>
+    <t>9|8|7|6|5.9|8|7|6|5</t>
+  </si>
+  <si>
+    <t>CHn=CHm-CHp=CHk(k,m,n,pin0..2)</t>
+  </si>
+  <si>
+    <t>C(CH3)2C(CH3)2</t>
+  </si>
+  <si>
+    <t>4(1)(1).4(1)(1)</t>
+  </si>
+  <si>
+    <t>CH(CH3)C(CH3)2</t>
+  </si>
+  <si>
+    <t>4(1)(1).3.1</t>
+  </si>
+  <si>
+    <t>CH(CH3)CH(CH3)</t>
+  </si>
+  <si>
+    <t>3(1).3.1</t>
+  </si>
+  <si>
+    <t>(CH3)2C</t>
+  </si>
+  <si>
+    <t>4(1)(1).1</t>
+  </si>
+  <si>
+    <t>(CH3)3C</t>
+  </si>
+  <si>
+    <t>(CH3)2CH</t>
+  </si>
+  <si>
+    <t>3(1).1</t>
+  </si>
+  <si>
+    <t>Gani-Const Groups</t>
+  </si>
+  <si>
+    <t>UNIFAC Configurations</t>
+  </si>
+  <si>
+    <t>Configurations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,6 +1741,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1079,7 +1787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1256,11 +1964,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1333,6 +2065,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1696,8 +2444,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86A29B87-4C21-4B7D-BA11-55922F41E455}" name="Table3" displayName="Table3" ref="F1:H256" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="F1:H256" xr:uid="{78E28C04-483A-477E-913E-ED74D9F08625}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86A29B87-4C21-4B7D-BA11-55922F41E455}" name="Table3" displayName="Table3" ref="F1:H257" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="F1:H257" xr:uid="{78E28C04-483A-477E-913E-ED74D9F08625}"/>
   <tableColumns count="3">
     <tableColumn id="5" xr3:uid="{AA8FEAB5-54B6-43C6-B42A-A4202BC1D712}" name="Column2" dataDxfId="2"/>
     <tableColumn id="1" xr3:uid="{A1F7F0E5-81AD-4C16-B1F0-2E32762470F6}" name="Column1" dataDxfId="1"/>
@@ -2004,19 +2752,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BDD919-375D-4054-BEB7-46C8ACD3EC82}">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="16" style="3" customWidth="1"/>
+    <col min="3" max="4" width="11" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
@@ -2024,25 +2772,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>323</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2059,10 +2807,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>149</v>
@@ -2643,7 +3391,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="C30" s="15">
         <v>13</v>
@@ -3331,12 +4079,8 @@
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="15">
-        <v>138</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>70</v>
-      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
@@ -3354,10 +4098,10 @@
       <c r="E64" s="27"/>
       <c r="F64" s="17"/>
       <c r="G64" s="15">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3412,10 +4156,10 @@
       <c r="E67" s="16"/>
       <c r="F67" s="17"/>
       <c r="G67" s="15">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3426,10 +4170,10 @@
       <c r="E68" s="16"/>
       <c r="F68" s="17"/>
       <c r="G68" s="15">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3448,10 +4192,10 @@
       <c r="E69" s="16"/>
       <c r="F69" s="17"/>
       <c r="G69" s="15">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>235</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3462,10 +4206,10 @@
       <c r="E70" s="16"/>
       <c r="F70" s="17"/>
       <c r="G70" s="15">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>326</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3563,11 +4307,11 @@
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="10"/>
-      <c r="G75" s="5">
+      <c r="G75" s="18">
         <v>130</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>237</v>
+      <c r="H75" s="18" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3761,7 +4505,7 @@
         <v>168</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3783,7 +4527,7 @@
         <v>169</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3805,7 +4549,7 @@
         <v>170</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5039,7 +5783,7 @@
         <v>131</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="168" spans="6:8" x14ac:dyDescent="0.25">
@@ -5048,7 +5792,7 @@
         <v>132</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="169" spans="6:8" x14ac:dyDescent="0.25">
@@ -5057,7 +5801,7 @@
         <v>133</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="170" spans="6:8" x14ac:dyDescent="0.25">
@@ -5066,7 +5810,7 @@
         <v>134</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="171" spans="6:8" x14ac:dyDescent="0.25">
@@ -5075,7 +5819,7 @@
         <v>135</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="172" spans="6:8" x14ac:dyDescent="0.25">
@@ -5084,7 +5828,7 @@
         <v>136</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173" spans="6:8" x14ac:dyDescent="0.25">
@@ -5093,753 +5837,762 @@
         <v>137</v>
       </c>
       <c r="H173" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F174" s="17"/>
+      <c r="G174" s="15">
+        <v>139</v>
+      </c>
+      <c r="H174" s="18" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F174" s="10"/>
-      <c r="G174" s="5">
-        <v>140</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="175" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F175" s="10"/>
       <c r="G175" s="5">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F176" s="10"/>
       <c r="G176" s="5">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="177" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F177" s="10"/>
       <c r="G177" s="5">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
     </row>
     <row r="178" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F178" s="10"/>
       <c r="G178" s="5">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F179" s="10"/>
       <c r="G179" s="5">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H179" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="180" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F180" s="10"/>
       <c r="G180" s="5">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F181" s="10"/>
       <c r="G181" s="5">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H181" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="182" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F182" s="10"/>
       <c r="G182" s="5">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H182" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F183" s="10"/>
       <c r="G183" s="5">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H183" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F184" s="10"/>
       <c r="G184" s="5">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H184" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F185" s="10"/>
       <c r="G185" s="5">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F186" s="10"/>
       <c r="G186" s="5">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H186" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F187" s="10"/>
       <c r="G187" s="5">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="188" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F188" s="10"/>
       <c r="G188" s="5">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H188" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="189" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F189" s="10"/>
       <c r="G189" s="5">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H189" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F190" s="10"/>
       <c r="G190" s="5">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="191" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F191" s="10"/>
       <c r="G191" s="5">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="192" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F192" s="10"/>
       <c r="G192" s="5">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F193" s="10"/>
       <c r="G193" s="5">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H193" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F194" s="10"/>
       <c r="G194" s="5">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F195" s="10"/>
       <c r="G195" s="5">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H195" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="196" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F196" s="10"/>
       <c r="G196" s="5">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H196" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="197" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F197" s="10"/>
       <c r="G197" s="5">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H197" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="198" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F198" s="10"/>
       <c r="G198" s="5">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H198" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F199" s="10"/>
       <c r="G199" s="5">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="200" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F200" s="10"/>
       <c r="G200" s="5">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H200" s="11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F201" s="10"/>
       <c r="G201" s="5">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H201" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="202" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F202" s="10"/>
       <c r="G202" s="5">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H202" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="203" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F203" s="10"/>
       <c r="G203" s="5">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H203" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F204" s="10"/>
       <c r="G204" s="5">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H204" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="205" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F205" s="10"/>
       <c r="G205" s="5">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H205" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="206" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F206" s="10"/>
       <c r="G206" s="5">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H206" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F207" s="10"/>
       <c r="G207" s="5">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H207" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="208" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F208" s="10"/>
       <c r="G208" s="5">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H208" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="209" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F209" s="10"/>
       <c r="G209" s="5">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H209" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F210" s="10"/>
       <c r="G210" s="5">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H210" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F211" s="10"/>
       <c r="G211" s="5">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H211" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="212" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F212" s="10"/>
       <c r="G212" s="5">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H212" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="213" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F213" s="10"/>
       <c r="G213" s="5">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H213" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="214" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F214" s="10"/>
       <c r="G214" s="5">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H214" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="215" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F215" s="10"/>
       <c r="G215" s="5">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H215" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="216" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F216" s="10"/>
       <c r="G216" s="5">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H216" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="217" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F217" s="10"/>
       <c r="G217" s="5">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H217" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="218" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F218" s="10"/>
       <c r="G218" s="5">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H218" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="219" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F219" s="10"/>
       <c r="G219" s="5">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H219" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="220" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F220" s="10"/>
       <c r="G220" s="5">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H220" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="221" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F221" s="10"/>
       <c r="G221" s="5">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H221" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="222" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F222" s="10"/>
       <c r="G222" s="5">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H222" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="223" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F223" s="10"/>
       <c r="G223" s="5">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H223" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="224" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F224" s="10"/>
       <c r="G224" s="5">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H224" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="225" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F225" s="10"/>
       <c r="G225" s="5">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H225" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F226" s="10"/>
       <c r="G226" s="5">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H226" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="227" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F227" s="10"/>
       <c r="G227" s="5">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H227" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="228" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F228" s="10"/>
       <c r="G228" s="5">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H228" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="229" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F229" s="10"/>
       <c r="G229" s="5">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H229" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="230" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F230" s="10"/>
       <c r="G230" s="5">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H230" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="231" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F231" s="10"/>
       <c r="G231" s="5">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H231" s="11" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F232" s="10"/>
       <c r="G232" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H232" s="11" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="233" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F233" s="10"/>
       <c r="G233" s="5">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H233" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F234" s="10"/>
       <c r="G234" s="5">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H234" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="235" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F235" s="10"/>
       <c r="G235" s="5">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H235" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="236" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F236" s="10"/>
       <c r="G236" s="5">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H236" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="237" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F237" s="10"/>
       <c r="G237" s="5">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H237" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="238" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F238" s="10"/>
       <c r="G238" s="5">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H238" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="239" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F239" s="10"/>
       <c r="G239" s="5">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H239" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="240" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F240" s="10"/>
       <c r="G240" s="5">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H240" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="241" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F241" s="10"/>
       <c r="G241" s="5">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H241" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F242" s="10"/>
       <c r="G242" s="5">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H242" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="243" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F243" s="10"/>
       <c r="G243" s="5">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H243" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="244" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F244" s="10"/>
       <c r="G244" s="5">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H244" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F245" s="10"/>
       <c r="G245" s="5">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H245" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="246" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F246" s="10"/>
       <c r="G246" s="5">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H246" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="247" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F247" s="10"/>
       <c r="G247" s="5">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H247" s="11" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
     </row>
     <row r="248" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F248" s="10"/>
       <c r="G248" s="5">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H248" s="11" t="s">
-        <v>319</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F249" s="10"/>
       <c r="G249" s="5">
-        <v>220</v>
-      </c>
-      <c r="H249" s="25" t="s">
-        <v>320</v>
+        <v>219</v>
+      </c>
+      <c r="H249" s="11" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="250" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F250" s="10"/>
       <c r="G250" s="5">
-        <v>23</v>
-      </c>
-      <c r="H250" s="11" t="s">
-        <v>163</v>
+        <v>220</v>
+      </c>
+      <c r="H250" s="25" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="251" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F251" s="10"/>
       <c r="G251" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H251" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="252" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F252" s="10"/>
       <c r="G252" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H252" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="253" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F253" s="10"/>
       <c r="G253" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H253" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="254" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F254" s="10"/>
       <c r="G254" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H254" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="255" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F255" s="10"/>
       <c r="G255" s="5">
+        <v>26</v>
+      </c>
+      <c r="H255" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F256" s="10"/>
+      <c r="G256" s="5">
         <v>27</v>
       </c>
-      <c r="H255" s="11" t="s">
+      <c r="H256" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F256" s="12"/>
-      <c r="G256" s="26">
+    <row r="257" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F257" s="12"/>
+      <c r="G257" s="26">
         <v>28</v>
       </c>
-      <c r="H256" s="13" t="s">
+      <c r="H257" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5851,4 +6604,1457 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A428357-E171-4033-8B95-71BC232F873C}">
+  <dimension ref="A1:E131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C17" s="33">
+        <v>29.3</v>
+      </c>
+      <c r="D17" s="33">
+        <v>81.3</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="C18" s="33">
+        <v>29.4</v>
+      </c>
+      <c r="D18" s="33">
+        <v>82.4</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>18</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>19</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>20</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="E29" s="33"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31">
+        <v>32</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="C33" s="33">
+        <v>139.32</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31">
+        <v>33</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E34" s="33"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31">
+        <v>34</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="D35" s="33">
+        <v>41.41</v>
+      </c>
+      <c r="E35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31">
+        <v>35</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="E36" s="33"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31">
+        <v>36</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="D37" s="33">
+        <v>60.64</v>
+      </c>
+      <c r="E37" s="33"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31">
+        <v>37</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31">
+        <v>38</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D39" s="33">
+        <v>22.22</v>
+      </c>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31">
+        <v>39</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="D40" s="33">
+        <v>41.77</v>
+      </c>
+      <c r="E40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31">
+        <v>40</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31">
+        <v>41</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31">
+        <v>42</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31">
+        <v>43</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31">
+        <v>44</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
+        <v>45</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D46" s="33">
+        <v>69</v>
+      </c>
+      <c r="E46" s="33"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31">
+        <v>46</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31">
+        <v>47</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>48</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="E49" s="33"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31">
+        <v>49</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31">
+        <v>50</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="31">
+        <v>51</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31">
+        <v>52</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="31">
+        <v>53</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="31">
+        <v>54</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31">
+        <v>55</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31">
+        <v>56</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="31">
+        <v>57</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31">
+        <v>58</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="31">
+        <v>59</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31">
+        <v>60</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31">
+        <v>61</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31">
+        <v>62</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31">
+        <v>63</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31">
+        <v>64</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31">
+        <v>65</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="31">
+        <v>66</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="31">
+        <v>67</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="31">
+        <v>68</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31">
+        <v>69</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="31">
+        <v>70</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31">
+        <v>71</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="31">
+        <v>72</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="31">
+        <v>73</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="31">
+        <v>74</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="31">
+        <v>75</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="31">
+        <v>76</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31">
+        <v>77</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="31">
+        <v>78</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="31">
+        <v>79</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="31">
+        <v>80</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="31">
+        <v>81</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="31">
+        <v>82</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="31">
+        <v>83</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="31">
+        <v>84</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31">
+        <v>85</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="31">
+        <v>86</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="31">
+        <v>87</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="31">
+        <v>88</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="31">
+        <v>89</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="31">
+        <v>90</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="31">
+        <v>91</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="31">
+        <v>92</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="31">
+        <v>93</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="31">
+        <v>94</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="31">
+        <v>95</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="31">
+        <v>96</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="31">
+        <v>97</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="31">
+        <v>98</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="31">
+        <v>99</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="31">
+        <v>100</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="31">
+        <v>101</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="31">
+        <v>102</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="31">
+        <v>103</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="31">
+        <v>104</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="31">
+        <v>105</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="31">
+        <v>106</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="31">
+        <v>107</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31">
+        <v>108</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="31">
+        <v>109</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="31">
+        <v>110</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="31">
+        <v>111</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="31">
+        <v>112</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="31">
+        <v>113</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="31">
+        <v>114</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="31">
+        <v>115</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="31">
+        <v>116</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="31">
+        <v>117</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="31">
+        <v>118</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="31">
+        <v>119</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="31">
+        <v>120</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="31">
+        <v>121</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="31">
+        <v>122</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="31">
+        <v>123</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="31">
+        <v>124</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="31">
+        <v>125</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="31">
+        <v>126</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="31">
+        <v>127</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="31">
+        <v>128</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="31">
+        <v>129</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="31">
+        <v>130</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>